--- a/ЗАВОДЫ/ПОКОМ/UZ/2025/05,25/29,05,25 ПОКОМ КИ Ташкент/дв 29,05,25 тшрсч пок ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/UZ/2025/05,25/29,05,25 ПОКОМ КИ Ташкент/дв 29,05,25 тшрсч пок ки от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\29,05,25 ПОКОМ КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\UZ\2025\05,25\29,05,25 ПОКОМ КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669E2E77-099E-4E0B-9756-279E6A6EF022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CB26CD-847D-4B59-9F2D-58969E4D8665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -430,6 +430,12 @@
   <si>
     <t>04,06,</t>
   </si>
+  <si>
+    <t>завод вывел из производства</t>
+  </si>
+  <si>
+    <t>вывод</t>
+  </si>
 </sst>
 </file>
 
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -591,6 +597,7 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -900,7 +907,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL11" sqref="AL11"/>
+      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1515,7 @@
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5">
-        <f t="shared" ref="Q7:Q70" si="4">AH7/G7</f>
+        <f t="shared" ref="Q7:Q53" si="4">AH7/G7</f>
         <v>200</v>
       </c>
       <c r="R7" s="5"/>
@@ -3570,12 +3577,14 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
         <f t="shared" si="2"/>
@@ -3591,8 +3600,7 @@
         <v>-2.4</v>
       </c>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5">
-        <f t="shared" si="4"/>
+      <c r="Q26" s="24">
         <v>500</v>
       </c>
       <c r="R26" s="5"/>
@@ -3636,10 +3644,9 @@
         <v>13.4</v>
       </c>
       <c r="AF26" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG26" s="1">
-        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AG26" s="23">
         <v>200</v>
       </c>
       <c r="AH26" s="1">
@@ -3682,12 +3689,14 @@
         <v>239.542</v>
       </c>
       <c r="G27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I27" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
         <f t="shared" si="2"/>
@@ -3706,8 +3715,7 @@
         <f t="shared" ref="P27:P47" si="9">18*O27-N27-F27</f>
         <v>340.25519999999995</v>
       </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="4"/>
+      <c r="Q27" s="24">
         <v>400</v>
       </c>
       <c r="R27" s="5"/>
@@ -3750,9 +3758,10 @@
       <c r="AE27" s="1">
         <v>51.965400000000002</v>
       </c>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1">
-        <f t="shared" si="7"/>
+      <c r="AF27" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG27" s="23">
         <v>400</v>
       </c>
       <c r="AH27" s="1">
